--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ESII--TP2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A2D40-EA1A-4156-8511-953BBF6800E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10C2A8-20EC-4B36-ABB4-92F809828EC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10395" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Casos de Teste</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Matriz M</t>
-  </si>
-  <si>
-    <t>matrizQuery</t>
   </si>
   <si>
     <t>matrizM</t>
@@ -375,25 +372,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,46 +720,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="37.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" customWidth="1"/>
-    <col min="28" max="28" width="15.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,12 +770,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -786,12 +783,12 @@
       <c r="F4" s="15"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -799,80 +796,80 @@
       <c r="F5" s="15"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="17"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="18"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="18"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -882,24 +879,24 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -907,40 +904,40 @@
       <c r="F16" s="15"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="17"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="18"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="18"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
@@ -948,38 +945,38 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="18"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -988,7 +985,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -999,12 +996,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1012,12 +1009,12 @@
       <c r="F26" s="15"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1025,7 +1022,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1034,7 +1031,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,48 +1046,48 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="16">
-        <v>1</v>
-      </c>
-      <c r="C31" s="17"/>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="17">
         <v>0</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1098,19 +1095,19 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1118,7 +1115,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1128,31 +1125,31 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1160,7 +1157,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,57 +1171,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="17"/>
+      <c r="B41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="19"/>
       <c r="D41" s="18"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1</v>
       </c>
-      <c r="B42" s="16">
-        <v>1</v>
-      </c>
-      <c r="C42" s="17"/>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="19"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="17">
         <v>0</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1232,7 +1229,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1242,55 +1239,55 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>1</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>3</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1298,7 +1295,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -1312,21 +1309,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -1341,10 +1338,10 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2</v>
       </c>
@@ -1359,10 +1356,10 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -1377,10 +1374,10 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>4</v>
       </c>
@@ -1388,17 +1385,17 @@
         <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>5</v>
       </c>
@@ -1413,10 +1410,10 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>6</v>
       </c>
@@ -1427,14 +1424,14 @@
         <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1442,7 +1439,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1450,19 +1447,19 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1470,7 +1467,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -1480,55 +1477,55 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>1</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>3</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>4</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -1542,21 +1539,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -1571,10 +1568,10 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>2</v>
       </c>
@@ -1589,10 +1586,10 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -1607,10 +1604,10 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>4</v>
       </c>
@@ -1618,17 +1615,17 @@
         <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>5</v>
       </c>
@@ -1642,10 +1639,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -1656,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1670,7 +1667,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1678,19 +1675,19 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1698,7 +1695,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -1708,31 +1705,31 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>1</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1740,7 +1737,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -1754,45 +1751,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="16" t="s">
-        <v>27</v>
+      <c r="B91" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>1</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="17">
         <v>1</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>2</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="17">
         <v>0</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="20"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1800,7 +1797,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1808,19 +1805,19 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1828,7 +1825,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
@@ -1838,43 +1835,43 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>1</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>2</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>3</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1882,7 +1879,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>0</v>
       </c>
@@ -1896,19 +1893,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -1921,10 +1918,10 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>2</v>
       </c>
@@ -1937,10 +1934,10 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>3</v>
       </c>
@@ -1953,10 +1950,10 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>4</v>
       </c>
@@ -1964,15 +1961,15 @@
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1980,7 +1977,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1988,19 +1985,19 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2008,7 +2005,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>1</v>
       </c>
@@ -2018,43 +2015,43 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>1</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>2</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>3</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2062,7 +2059,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,19 +2073,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -2101,10 +2098,10 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>2</v>
       </c>
@@ -2117,10 +2114,10 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>3</v>
       </c>
@@ -2133,10 +2130,10 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>4</v>
       </c>
@@ -2144,34 +2141,32 @@
         <v>1</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
@@ -2188,22 +2183,24 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B111:F111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ESII--TP2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10C2A8-20EC-4B36-ABB4-92F809828EC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92A6DE1-25B6-4196-BAF4-F503834B1A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10395" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>Casos de Teste</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>maximoFicheiros</t>
+  </si>
+  <si>
+    <t>numFiles&gt;0</t>
+  </si>
+  <si>
+    <t>numFiles&lt;=0</t>
   </si>
 </sst>
 </file>
@@ -375,22 +381,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,48 +724,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:F67"/>
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.88671875" customWidth="1"/>
+    <col min="28" max="28" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -770,106 +776,106 @@
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -879,104 +885,104 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>1</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>2</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -985,7 +991,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -996,33 +1002,33 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1031,7 +1037,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,48 +1052,48 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>1</v>
       </c>
       <c r="B31" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="14"/>
       <c r="F31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>2</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="14"/>
       <c r="F32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1095,19 +1101,19 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1115,7 +1121,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1125,31 +1131,31 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>2</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1157,7 +1163,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,57 +1177,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1</v>
       </c>
       <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="14"/>
       <c r="F42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>2</v>
       </c>
       <c r="B43" s="17">
         <v>0</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="14"/>
       <c r="F43" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1229,7 +1235,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1239,55 +1245,55 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>3</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>4</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1295,7 +1301,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="8" t="s">
         <v>26</v>
@@ -1323,7 +1329,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>2</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>4</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>5</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>6</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1439,7 +1445,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1447,19 +1453,19 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1467,7 +1473,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -1477,55 +1483,55 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>1</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>2</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>3</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>4</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="8" t="s">
         <v>26</v>
@@ -1553,7 +1559,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>2</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>4</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>5</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1667,7 +1673,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1675,19 +1681,19 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1695,7 +1701,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -1705,31 +1711,31 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>1</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>2</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1737,7 +1743,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -1751,45 +1757,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="18"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>1</v>
       </c>
       <c r="B92" s="17">
         <v>1</v>
       </c>
-      <c r="C92" s="18"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="14"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>2</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
       </c>
-      <c r="C93" s="18"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="14"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1797,7 +1803,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1805,19 +1811,19 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1825,7 +1831,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
@@ -1835,82 +1841,86 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>1</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>2</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="B100" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="13"/>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>43</v>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>1</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -1918,58 +1928,38 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>2</v>
-      </c>
-      <c r="B106" s="9">
-        <v>0</v>
-      </c>
-      <c r="C106" s="7">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <v>3</v>
-      </c>
-      <c r="B107" s="7">
-        <v>1</v>
-      </c>
-      <c r="C107" s="9">
-        <v>1</v>
-      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>4</v>
-      </c>
-      <c r="B108" s="7">
-        <v>1</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1977,180 +1967,185 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>2</v>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>1</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
-        <v>1</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
-        <v>2</v>
-      </c>
-      <c r="B115" s="15" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>2</v>
+      </c>
+      <c r="B112" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
         <v>3</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B113" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>1</v>
+      </c>
+      <c r="B117" s="9">
+        <v>1</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="F117" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>2</v>
+      </c>
+      <c r="B118" s="9">
         <v>0</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>43</v>
+      <c r="F118" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>3</v>
+      </c>
+      <c r="B119" s="7">
+        <v>1</v>
+      </c>
+      <c r="C119" s="9">
+        <v>1</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
-        <v>1</v>
-      </c>
-      <c r="B120" s="9">
-        <v>1</v>
-      </c>
-      <c r="C120" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B120" s="7">
+        <v>1</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>2</v>
-      </c>
-      <c r="B121" s="9">
-        <v>0</v>
-      </c>
-      <c r="C121" s="7">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>3</v>
-      </c>
-      <c r="B122" s="7">
-        <v>1</v>
-      </c>
-      <c r="C122" s="9">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>4</v>
-      </c>
-      <c r="B123" s="7">
-        <v>1</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B8:D8"/>
@@ -2167,40 +2162,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B111:F111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92A6DE1-25B6-4196-BAF4-F503834B1A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68590A18-D48B-48FB-B6EA-1959E7C97A80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,10 +760,10 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="10"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="10"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -774,7 +774,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -787,7 +787,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -800,10 +800,10 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="10"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -818,7 +818,7 @@
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
@@ -827,7 +827,7 @@
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -842,7 +842,7 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -857,7 +857,7 @@
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1101,7 +1101,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1112,16 +1112,18 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1130,8 +1132,9 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1142,8 +1145,9 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -1154,16 +1158,18 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1182,9 @@
       <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="17" t="s">
         <v>26</v>
@@ -1186,8 +1193,9 @@
       <c r="D41" s="19"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -1200,8 +1208,9 @@
       <c r="F42" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -1214,8 +1223,9 @@
       <c r="F43" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1237,7 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1235,7 +1245,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>

--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92A6DE1-25B6-4196-BAF4-F503834B1A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA061E8C-A008-4791-A422-9A6AA68385F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -381,22 +381,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,13 +753,13 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -780,26 +780,26 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -809,11 +809,11 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>4</v>
@@ -824,8 +824,8 @@
       <c r="B8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
     </row>
@@ -836,8 +836,8 @@
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>12</v>
@@ -851,8 +851,8 @@
       <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -867,13 +867,13 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -889,25 +889,25 @@
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,11 +917,11 @@
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -932,8 +932,8 @@
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -943,8 +943,8 @@
       <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -958,8 +958,8 @@
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>22</v>
@@ -973,13 +973,13 @@
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1006,26 +1006,26 @@
       <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1057,8 +1057,8 @@
       <c r="B30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="10"/>
@@ -1070,8 +1070,8 @@
       <c r="B31" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="14"/>
       <c r="F31" s="4" t="s">
         <v>6</v>
@@ -1085,8 +1085,8 @@
       <c r="B32" s="17">
         <v>0</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="14"/>
       <c r="F32" s="4" t="s">
         <v>22</v>
@@ -1105,13 +1105,13 @@
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1135,25 +1135,25 @@
       <c r="A37" s="6">
         <v>1</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>2</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1182,8 +1182,8 @@
       <c r="B41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
@@ -1194,8 +1194,8 @@
       <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="14"/>
       <c r="F42" s="4" t="s">
         <v>30</v>
@@ -1208,8 +1208,8 @@
       <c r="B43" s="17">
         <v>0</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="14"/>
       <c r="F43" s="4">
         <v>-1</v>
@@ -1219,13 +1219,13 @@
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -1249,49 +1249,49 @@
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>3</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>4</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
@@ -1457,13 +1457,13 @@
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
@@ -1487,49 +1487,49 @@
       <c r="A67" s="6">
         <v>1</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>2</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>3</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>4</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
@@ -1685,13 +1685,13 @@
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
@@ -1715,25 +1715,25 @@
       <c r="A87" s="6">
         <v>1</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>2</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -1762,7 +1762,7 @@
       <c r="B91" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="19"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -1774,7 +1774,7 @@
       <c r="B92" s="17">
         <v>1</v>
       </c>
-      <c r="C92" s="19"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="14"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
@@ -1788,7 +1788,7 @@
       <c r="B93" s="17">
         <v>0</v>
       </c>
-      <c r="C93" s="19"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="14"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
@@ -1815,13 +1815,13 @@
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
@@ -1845,25 +1845,25 @@
       <c r="A99" s="6">
         <v>1</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>2</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
@@ -1951,13 +1951,13 @@
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
@@ -1981,37 +1981,37 @@
       <c r="A111" s="6">
         <v>1</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>2</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>3</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
@@ -2113,23 +2113,22 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B15:F15"/>
@@ -2146,22 +2145,23 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B108:F108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Documents\GitHub\ESII--TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68590A18-D48B-48FB-B6EA-1959E7C97A80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BB207-6735-4240-ABDC-F7C698B47F8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10392" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10390" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>Casos de Teste</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>isFound</t>
-  </si>
-  <si>
-    <t>\0</t>
   </si>
   <si>
     <t>char que recebeu como input</t>
@@ -343,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,22 +378,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -726,46 +726,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="42.54296875" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" customWidth="1"/>
+    <col min="15" max="15" width="20.36328125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" customWidth="1"/>
-    <col min="28" max="28" width="15.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" customWidth="1"/>
+    <col min="23" max="23" width="20.6328125" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" customWidth="1"/>
+    <col min="28" max="28" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,12 +776,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -789,12 +789,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -802,80 +802,80 @@
       <c r="F5" s="16"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="19"/>
       <c r="E8" s="10"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="19"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="19"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -885,24 +885,24 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -910,40 +910,40 @@
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="18"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="20"/>
       <c r="D19" s="19"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="19"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
@@ -951,38 +951,38 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20"/>
       <c r="D21" s="19"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -991,7 +991,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1002,12 +1002,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>1</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1015,12 +1015,12 @@
       <c r="F26" s="16"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1028,7 +1028,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1037,7 +1037,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1052,25 +1052,25 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="19"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="18"/>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20"/>
       <c r="D31" s="19"/>
       <c r="E31" s="14"/>
       <c r="F31" s="4" t="s">
@@ -1078,22 +1078,22 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="18">
         <v>0</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="19"/>
       <c r="E32" s="14"/>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1101,20 +1101,20 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1123,7 +1123,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1134,12 +1134,12 @@
       <c r="F36" s="2"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>1</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1147,12 +1147,12 @@
       <c r="F37" s="16"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1160,7 +1160,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1169,7 +1169,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,40 +1184,40 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="20"/>
       <c r="D41" s="19"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>1</v>
       </c>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" s="18"/>
+      <c r="B42" s="18">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20"/>
       <c r="D42" s="19"/>
       <c r="E42" s="14"/>
       <c r="F42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>2</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="18">
         <v>0</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="19"/>
       <c r="E43" s="14"/>
       <c r="F43" s="4">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1245,7 +1245,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1255,55 +1255,55 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>1</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>2</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>3</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1311,27 +1311,27 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -1339,7 +1339,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -1354,10 +1354,10 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>2</v>
       </c>
@@ -1372,10 +1372,10 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -1390,10 +1390,10 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>4</v>
       </c>
@@ -1401,17 +1401,17 @@
         <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>5</v>
       </c>
@@ -1426,10 +1426,10 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>6</v>
       </c>
@@ -1440,14 +1440,14 @@
         <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1463,19 +1463,19 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1483,7 +1483,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -1493,83 +1493,83 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>1</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>2</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>3</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>4</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>2</v>
       </c>
@@ -1602,10 +1602,10 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>4</v>
       </c>
@@ -1631,17 +1631,17 @@
         <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -1669,13 +1669,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1683,7 +1683,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1691,19 +1691,19 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -1721,31 +1721,31 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>1</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>2</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1753,35 +1753,35 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
-      <c r="B91" s="17" t="s">
-        <v>26</v>
+      <c r="B91" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>1</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="18">
         <v>1</v>
       </c>
       <c r="C92" s="19"/>
@@ -1791,21 +1791,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>2</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="18">
         <v>0</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="14"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1813,7 +1813,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1821,19 +1821,19 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1841,7 +1841,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
@@ -1851,31 +1851,31 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>1</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>2</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1883,33 +1883,33 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>1</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>2</v>
       </c>
@@ -1938,10 +1938,10 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1949,7 +1949,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1957,19 +1957,19 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1977,7 +1977,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -1987,43 +1987,43 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>1</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>2</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>3</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2031,33 +2031,33 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>1</v>
       </c>
@@ -2070,10 +2070,10 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>2</v>
       </c>
@@ -2086,10 +2086,10 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>3</v>
       </c>
@@ -2102,10 +2102,10 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>4</v>
       </c>
@@ -2113,49 +2113,20 @@
         <v>1</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B67:F67"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B8:D8"/>
@@ -2172,6 +2143,35 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B108:F108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas BVA.xlsx
+++ b/Tabelas BVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BB207-6735-4240-ABDC-F7C698B47F8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EF652-796A-41D8-979D-CDD077DFEA97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10390" xr2:uid="{5BC89611-3435-46D4-BA42-03AA10355231}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>Casos de Teste</t>
   </si>
@@ -122,21 +122,9 @@
     <t>tamanho matriz Q</t>
   </si>
   <si>
-    <t>numFiles &gt; 0, File[] !=null, matrizM != null</t>
-  </si>
-  <si>
     <t>MatrizQ</t>
   </si>
   <si>
-    <t>numFiles &lt;= 0, File[] !=null, matrizM != null</t>
-  </si>
-  <si>
-    <t>numFiles &gt; 0, File[] =null, matrizM != null</t>
-  </si>
-  <si>
-    <t>numFiles &gt; 0, File[] !=null, matrizM = null</t>
-  </si>
-  <si>
     <t>File[]</t>
   </si>
   <si>
@@ -186,6 +174,24 @@
   </si>
   <si>
     <t>numFiles&lt;=0</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, File[] !=null, matrizM != null, Scanner !=null</t>
+  </si>
+  <si>
+    <t>numFiles &lt;= 0, File[] !=null, matrizM != null, Scanner !=null</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, File[] =null, matrizM != null, Scanner !=null</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, File[] !=null, matrizM = null, Scanner !=null</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, File[] !=null, matrizM = null, Scanner ==null</t>
   </si>
 </sst>
 </file>
@@ -384,19 +390,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84452C-D8AA-4605-BDBF-5DDB03E4E521}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,17 +759,13 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G2" s="5"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -774,7 +776,6 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -787,7 +788,6 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -800,34 +800,28 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="10"/>
-      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
@@ -836,13 +830,12 @@
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
@@ -851,13 +844,12 @@
       <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
@@ -867,13 +859,13 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -917,11 +909,11 @@
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -932,8 +924,8 @@
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -943,8 +935,8 @@
       <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -958,8 +950,8 @@
       <c r="B21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>21</v>
@@ -973,13 +965,13 @@
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1057,8 +1049,8 @@
       <c r="B30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="10"/>
@@ -1070,8 +1062,8 @@
       <c r="B31" s="18">
         <v>1</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="14"/>
       <c r="F31" s="4" t="s">
         <v>6</v>
@@ -1085,15 +1077,15 @@
       <c r="B32" s="18">
         <v>0</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="14"/>
       <c r="F32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1101,29 +1093,27 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1132,9 +1122,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -1145,9 +1134,8 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -1158,18 +1146,16 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,62 +1168,58 @@
       <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>1</v>
       </c>
       <c r="B42" s="18">
         <v>1</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="14"/>
       <c r="F42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>2</v>
       </c>
       <c r="B43" s="18">
         <v>0</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="14"/>
       <c r="F43" s="4">
         <v>-1</v>
       </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1245,7 +1227,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -1272,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -1284,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -1296,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -1304,65 +1286,53 @@
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A53" s="6">
+        <v>5</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
-        <v>1</v>
-      </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="E56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -1370,375 +1340,409 @@
       <c r="D57" s="7">
         <v>1</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
       <c r="F57" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
-        <v>3</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9">
+        <v>2</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" s="7">
         <v>1</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="12" t="s">
-        <v>31</v>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="7">
         <v>1</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>21</v>
+      <c r="C59" s="9">
+        <v>1</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="4" t="s">
-        <v>21</v>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="7">
         <v>1</v>
       </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="C60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
         <v>6</v>
       </c>
-      <c r="B61" s="7">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="4" t="s">
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="A63" s="6">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="A64" s="6">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
-        <v>1</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>2</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>3</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>2</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+    </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="6">
+        <v>3</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>4</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
-        <v>1</v>
-      </c>
-      <c r="B74" s="9">
-        <v>1</v>
-      </c>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
-        <v>2</v>
-      </c>
-      <c r="B75" s="9">
-        <v>0</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
-        <v>3</v>
-      </c>
-      <c r="B76" s="7">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1</v>
+      <c r="D76" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
-        <v>4</v>
-      </c>
-      <c r="B77" s="7">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
-        <v>5</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
-      <c r="D78" s="9">
-        <v>1</v>
-      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
+        <v>3</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>4</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>5</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
         <v>6</v>
       </c>
-      <c r="B79" s="7">
-        <v>1</v>
-      </c>
-      <c r="C79" s="7">
-        <v>1</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="B82" s="7">
+        <v>1</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="A85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="6">
-        <v>1</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -1746,72 +1750,76 @@
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="A89" s="6">
+        <v>2</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="15"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-      <c r="B91" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="19"/>
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="21"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="6">
-        <v>1</v>
-      </c>
-      <c r="B92" s="18">
-        <v>1</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="18">
-        <v>0</v>
-      </c>
-      <c r="C93" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="C93" s="20"/>
       <c r="D93" s="14"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>2</v>
+      </c>
+      <c r="B94" s="18">
+        <v>0</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
@@ -1822,53 +1830,49 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="A97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="6">
-        <v>1</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -1876,61 +1880,57 @@
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="A101" s="6">
+        <v>2</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="15"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-      <c r="B103" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="15"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="6">
-        <v>1</v>
-      </c>
-      <c r="B104" s="9">
-        <v>1</v>
-      </c>
-      <c r="C104" s="7">
-        <v>1</v>
+      <c r="A104" s="1"/>
+      <c r="B104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -1938,16 +1938,24 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="A106" s="6">
+        <v>2</v>
+      </c>
+      <c r="B106" s="9">
+        <v>0</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
@@ -1958,53 +1966,49 @@
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="A109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="6">
-        <v>1</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -2013,10 +2017,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -2024,61 +2028,57 @@
       <c r="F113" s="16"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="A114" s="6">
+        <v>3</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="15"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-      <c r="B116" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="21"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="6">
-        <v>1</v>
-      </c>
-      <c r="B117" s="9">
-        <v>1</v>
-      </c>
-      <c r="C117" s="7">
-        <v>1</v>
+      <c r="A117" s="1"/>
+      <c r="B117" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="7">
         <v>1</v>
@@ -2086,46 +2086,99 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
-        <v>3</v>
-      </c>
-      <c r="B119" s="7">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9">
+        <v>2</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0</v>
+      </c>
+      <c r="C119" s="7">
         <v>1</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" s="7">
         <v>1</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>21</v>
+      <c r="C120" s="9">
+        <v>1</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>4</v>
+      </c>
+      <c r="B121" s="7">
+        <v>1</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B69:F69"/>
+  <mergeCells count="53">
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
@@ -2139,39 +2192,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B108:F108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
